--- a/App/django_files/db/birthdays/9162078094.xlsx
+++ b/App/django_files/db/birthdays/9162078094.xlsx
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>865</v>
+        <v>902</v>
       </c>
       <c r="B2" t="n">
         <v>152952</v>
